--- a/Assets/Excel/MonsterTable.xlsx
+++ b/Assets/Excel/MonsterTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitFork\FlowerGarden\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D3EA3B-C59A-422A-ABFC-AF03DC077938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735A7A8D-C738-43D7-B04B-50E71FCFF853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44530" yWindow="2520" windowWidth="28800" windowHeight="15370" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
+    <workbookView xWindow="6130" yWindow="2520" windowWidth="28800" windowHeight="15370" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>string</t>
   </si>
@@ -91,22 +91,6 @@
     <t>몬스터6</t>
   </si>
   <si>
-    <t>RedDice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenDice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PurpleDice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DicePivot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,6 +108,26 @@
   </si>
   <si>
     <t>리소스 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PurpleToken</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +512,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -534,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -546,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -565,11 +569,11 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
@@ -612,19 +616,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -638,7 +642,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -650,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -664,7 +668,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -676,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -690,7 +694,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -702,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -716,7 +720,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -728,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -742,7 +746,7 @@
         <v>70</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
@@ -754,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -768,7 +772,7 @@
         <v>80</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -780,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
